--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Icam1-Itgal.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Icam1-Itgal.xlsx
@@ -543,46 +543,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>17.642385</v>
+        <v>18.30131666666667</v>
       </c>
       <c r="H2">
-        <v>52.927155</v>
+        <v>54.90395</v>
       </c>
       <c r="I2">
-        <v>0.04400342879047246</v>
+        <v>0.03754501421639525</v>
       </c>
       <c r="J2">
-        <v>0.04400342879047245</v>
+        <v>0.03754501421639524</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.1562936666666667</v>
+        <v>0.5601916666666666</v>
       </c>
       <c r="N2">
-        <v>0.468881</v>
+        <v>1.680575</v>
       </c>
       <c r="O2">
-        <v>0.001322080137978314</v>
+        <v>0.004918836886457545</v>
       </c>
       <c r="P2">
-        <v>0.001322080137978314</v>
+        <v>0.004918836886457544</v>
       </c>
       <c r="Q2">
-        <v>2.757393040395</v>
+        <v>10.25224508569445</v>
       </c>
       <c r="R2">
-        <v>24.816537363555</v>
+        <v>92.27020577125001</v>
       </c>
       <c r="S2">
-        <v>5.817605920682672E-05</v>
+        <v>0.0001846778008301779</v>
       </c>
       <c r="T2">
-        <v>5.817605920682672E-05</v>
+        <v>0.0001846778008301778</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>17.642385</v>
+        <v>18.30131666666667</v>
       </c>
       <c r="H3">
-        <v>52.927155</v>
+        <v>54.90395</v>
       </c>
       <c r="I3">
-        <v>0.04400342879047246</v>
+        <v>0.03754501421639525</v>
       </c>
       <c r="J3">
-        <v>0.04400342879047245</v>
+        <v>0.03754501421639524</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -629,22 +629,22 @@
         <v>0.172156</v>
       </c>
       <c r="O3">
-        <v>0.0004854196016340918</v>
+        <v>0.000503879495425664</v>
       </c>
       <c r="P3">
-        <v>0.0004854196016340918</v>
+        <v>0.0005038794954256639</v>
       </c>
       <c r="Q3">
-        <v>1.01241414402</v>
+        <v>1.050227157355556</v>
       </c>
       <c r="R3">
-        <v>9.11172729618</v>
+        <v>9.4520444162</v>
       </c>
       <c r="S3">
-        <v>2.136012687400526E-05</v>
+        <v>1.891816281910662E-05</v>
       </c>
       <c r="T3">
-        <v>2.136012687400526E-05</v>
+        <v>1.891816281910661E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>17.642385</v>
+        <v>18.30131666666667</v>
       </c>
       <c r="H4">
-        <v>52.927155</v>
+        <v>54.90395</v>
       </c>
       <c r="I4">
-        <v>0.04400342879047246</v>
+        <v>0.03754501421639525</v>
       </c>
       <c r="J4">
-        <v>0.04400342879047245</v>
+        <v>0.03754501421639524</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>37.765109</v>
+        <v>39.006687</v>
       </c>
       <c r="N4">
-        <v>113.295327</v>
+        <v>117.020061</v>
       </c>
       <c r="O4">
-        <v>0.3194531268114046</v>
+        <v>0.3425033649211204</v>
       </c>
       <c r="P4">
-        <v>0.3194531268114046</v>
+        <v>0.3425033649211204</v>
       </c>
       <c r="Q4">
-        <v>666.2665925449651</v>
+        <v>713.87373090455</v>
       </c>
       <c r="R4">
-        <v>5996.399332904685</v>
+        <v>6424.86357814095</v>
       </c>
       <c r="S4">
-        <v>0.01405703291753941</v>
+        <v>0.01285929370512668</v>
       </c>
       <c r="T4">
-        <v>0.01405703291753941</v>
+        <v>0.01285929370512667</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,46 +729,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>17.642385</v>
+        <v>18.30131666666667</v>
       </c>
       <c r="H5">
-        <v>52.927155</v>
+        <v>54.90395</v>
       </c>
       <c r="I5">
-        <v>0.04400342879047246</v>
+        <v>0.03754501421639525</v>
       </c>
       <c r="J5">
-        <v>0.04400342879047245</v>
+        <v>0.03754501421639524</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.254942</v>
+        <v>0.009788</v>
       </c>
       <c r="N5">
-        <v>0.764826</v>
+        <v>0.029364</v>
       </c>
       <c r="O5">
-        <v>0.002156541347611445</v>
+        <v>8.594482622551172E-05</v>
       </c>
       <c r="P5">
-        <v>0.002156541347611445</v>
+        <v>8.59448262255117E-05</v>
       </c>
       <c r="Q5">
-        <v>4.497784916670001</v>
+        <v>0.1791332875333334</v>
       </c>
       <c r="R5">
-        <v>40.48006425003</v>
+        <v>1.6121995878</v>
       </c>
       <c r="S5">
-        <v>9.489521362332971E-05</v>
+        <v>3.226799722462457E-06</v>
       </c>
       <c r="T5">
-        <v>9.489521362332971E-05</v>
+        <v>3.226799722462456E-06</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>17.642385</v>
+        <v>18.30131666666667</v>
       </c>
       <c r="H6">
-        <v>52.927155</v>
+        <v>54.90395</v>
       </c>
       <c r="I6">
-        <v>0.04400342879047246</v>
+        <v>0.03754501421639525</v>
       </c>
       <c r="J6">
-        <v>0.04400342879047245</v>
+        <v>0.03754501421639524</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>56.08363733333334</v>
+        <v>71.75399666666667</v>
       </c>
       <c r="N6">
-        <v>168.250912</v>
+        <v>215.26199</v>
       </c>
       <c r="O6">
-        <v>0.4744086217013211</v>
+        <v>0.6300454407951178</v>
       </c>
       <c r="P6">
-        <v>0.4744086217013212</v>
+        <v>0.6300454407951178</v>
       </c>
       <c r="Q6">
-        <v>989.4491220350402</v>
+        <v>1313.192615095611</v>
       </c>
       <c r="R6">
-        <v>8905.042098315362</v>
+        <v>11818.7335358605</v>
       </c>
       <c r="S6">
-        <v>0.02087560600262027</v>
+        <v>0.02365506503162771</v>
       </c>
       <c r="T6">
-        <v>0.02087560600262027</v>
+        <v>0.02365506503162771</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>17.642385</v>
+        <v>18.30131666666667</v>
       </c>
       <c r="H7">
-        <v>52.927155</v>
+        <v>54.90395</v>
       </c>
       <c r="I7">
-        <v>0.04400342879047246</v>
+        <v>0.03754501421639525</v>
       </c>
       <c r="J7">
-        <v>0.04400342879047245</v>
+        <v>0.03754501421639524</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>23.90063033333334</v>
+        <v>2.498969666666667</v>
       </c>
       <c r="N7">
-        <v>71.701891</v>
+        <v>7.496909</v>
       </c>
       <c r="O7">
-        <v>0.2021742104000504</v>
+        <v>0.021942533075653</v>
       </c>
       <c r="P7">
-        <v>0.2021742104000504</v>
+        <v>0.021942533075653</v>
       </c>
       <c r="Q7">
-        <v>421.664122083345</v>
+        <v>45.73443521006111</v>
       </c>
       <c r="R7">
-        <v>3794.977098750105</v>
+        <v>411.60991689055</v>
       </c>
       <c r="S7">
-        <v>0.008896358470608613</v>
+        <v>0.0008238327162691149</v>
       </c>
       <c r="T7">
-        <v>0.008896358470608613</v>
+        <v>0.0008238327162691148</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,40 +921,40 @@
         <v>56.364044</v>
       </c>
       <c r="I8">
-        <v>0.04686084480635803</v>
+        <v>0.03854347152205856</v>
       </c>
       <c r="J8">
-        <v>0.04686084480635802</v>
+        <v>0.03854347152205856</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.1562936666666667</v>
+        <v>0.5601916666666666</v>
       </c>
       <c r="N8">
-        <v>0.468881</v>
+        <v>1.680575</v>
       </c>
       <c r="O8">
-        <v>0.001322080137978314</v>
+        <v>0.004918836886457545</v>
       </c>
       <c r="P8">
-        <v>0.001322080137978314</v>
+        <v>0.004918836886457544</v>
       </c>
       <c r="Q8">
-        <v>2.936447701640444</v>
+        <v>10.52488924947778</v>
       </c>
       <c r="R8">
-        <v>26.428029314764</v>
+        <v>94.7240032453</v>
       </c>
       <c r="S8">
-        <v>6.195379216737016E-05</v>
+        <v>0.0001895890494548276</v>
       </c>
       <c r="T8">
-        <v>6.195379216737016E-05</v>
+        <v>0.0001895890494548275</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>56.364044</v>
       </c>
       <c r="I9">
-        <v>0.04686084480635803</v>
+        <v>0.03854347152205856</v>
       </c>
       <c r="J9">
-        <v>0.04686084480635802</v>
+        <v>0.03854347152205856</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -1001,10 +1001,10 @@
         <v>0.172156</v>
       </c>
       <c r="O9">
-        <v>0.0004854196016340918</v>
+        <v>0.000503879495425664</v>
       </c>
       <c r="P9">
-        <v>0.0004854196016340918</v>
+        <v>0.0005038794954256639</v>
       </c>
       <c r="Q9">
         <v>1.078156484318222</v>
@@ -1013,10 +1013,10 @@
         <v>9.703408358863999</v>
       </c>
       <c r="S9">
-        <v>2.274717261813931E-05</v>
+        <v>1.942126498248832E-05</v>
       </c>
       <c r="T9">
-        <v>2.274717261813931E-05</v>
+        <v>1.942126498248831E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>56.364044</v>
       </c>
       <c r="I10">
-        <v>0.04686084480635803</v>
+        <v>0.03854347152205856</v>
       </c>
       <c r="J10">
-        <v>0.04686084480635802</v>
+        <v>0.03854347152205856</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>37.765109</v>
+        <v>39.006687</v>
       </c>
       <c r="N10">
-        <v>113.295327</v>
+        <v>117.020061</v>
       </c>
       <c r="O10">
-        <v>0.3194531268114046</v>
+        <v>0.3425033649211204</v>
       </c>
       <c r="P10">
-        <v>0.3194531268114046</v>
+        <v>0.3425033649211204</v>
       </c>
       <c r="Q10">
-        <v>709.5314217802653</v>
+        <v>732.8582074540759</v>
       </c>
       <c r="R10">
-        <v>6385.782796022389</v>
+        <v>6595.723867086684</v>
       </c>
       <c r="S10">
-        <v>0.01496984339841504</v>
+        <v>0.01320126869204644</v>
       </c>
       <c r="T10">
-        <v>0.01496984339841504</v>
+        <v>0.01320126869204643</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,40 +1107,40 @@
         <v>56.364044</v>
       </c>
       <c r="I11">
-        <v>0.04686084480635803</v>
+        <v>0.03854347152205856</v>
       </c>
       <c r="J11">
-        <v>0.04686084480635802</v>
+        <v>0.03854347152205856</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.254942</v>
+        <v>0.009788</v>
       </c>
       <c r="N11">
-        <v>0.764826</v>
+        <v>0.029364</v>
       </c>
       <c r="O11">
-        <v>0.002156541347611445</v>
+        <v>8.594482622551172E-05</v>
       </c>
       <c r="P11">
-        <v>0.002156541347611445</v>
+        <v>8.59448262255117E-05</v>
       </c>
       <c r="Q11">
-        <v>4.789854035149333</v>
+        <v>0.1838970875573333</v>
       </c>
       <c r="R11">
-        <v>43.108686316344</v>
+        <v>1.655073788016</v>
       </c>
       <c r="S11">
-        <v>0.0001010573494089141</v>
+        <v>3.312611962091282E-06</v>
       </c>
       <c r="T11">
-        <v>0.0001010573494089141</v>
+        <v>3.312611962091282E-06</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>56.364044</v>
       </c>
       <c r="I12">
-        <v>0.04686084480635803</v>
+        <v>0.03854347152205856</v>
       </c>
       <c r="J12">
-        <v>0.04686084480635802</v>
+        <v>0.03854347152205856</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>56.08363733333334</v>
+        <v>71.75399666666667</v>
       </c>
       <c r="N12">
-        <v>168.250912</v>
+        <v>215.26199</v>
       </c>
       <c r="O12">
-        <v>0.4744086217013211</v>
+        <v>0.6300454407951178</v>
       </c>
       <c r="P12">
-        <v>0.4744086217013212</v>
+        <v>0.6300454407951178</v>
       </c>
       <c r="Q12">
-        <v>1053.700200778681</v>
+        <v>1348.115141765284</v>
       </c>
       <c r="R12">
-        <v>9483.301807008129</v>
+        <v>12133.03627588756</v>
       </c>
       <c r="S12">
-        <v>0.02223118879634383</v>
+        <v>0.02428413850488946</v>
       </c>
       <c r="T12">
-        <v>0.02223118879634382</v>
+        <v>0.02428413850488946</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>56.364044</v>
       </c>
       <c r="I13">
-        <v>0.04686084480635803</v>
+        <v>0.03854347152205856</v>
       </c>
       <c r="J13">
-        <v>0.04686084480635802</v>
+        <v>0.03854347152205856</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>23.90063033333334</v>
+        <v>2.498969666666667</v>
       </c>
       <c r="N13">
-        <v>71.701891</v>
+        <v>7.496909</v>
       </c>
       <c r="O13">
-        <v>0.2021742104000504</v>
+        <v>0.021942533075653</v>
       </c>
       <c r="P13">
-        <v>0.2021742104000504</v>
+        <v>0.021942533075653</v>
       </c>
       <c r="Q13">
-        <v>449.0453932452449</v>
+        <v>46.95067874888844</v>
       </c>
       <c r="R13">
-        <v>4041.408539207204</v>
+        <v>422.556108739996</v>
       </c>
       <c r="S13">
-        <v>0.009474054297404735</v>
+        <v>0.0008457413987232595</v>
       </c>
       <c r="T13">
-        <v>0.009474054297404735</v>
+        <v>0.0008457413987232595</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,46 +1287,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>44.82177033333333</v>
+        <v>40.59291233333333</v>
       </c>
       <c r="H14">
-        <v>134.465311</v>
+        <v>121.778737</v>
       </c>
       <c r="I14">
-        <v>0.1117939314398673</v>
+        <v>0.08327605594715239</v>
       </c>
       <c r="J14">
-        <v>0.1117939314398673</v>
+        <v>0.08327605594715239</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>0.1562936666666667</v>
+        <v>0.5601916666666666</v>
       </c>
       <c r="N14">
-        <v>0.468881</v>
+        <v>1.680575</v>
       </c>
       <c r="O14">
-        <v>0.001322080137978314</v>
+        <v>0.004918836886457545</v>
       </c>
       <c r="P14">
-        <v>0.001322080137978314</v>
+        <v>0.004918836886457544</v>
       </c>
       <c r="Q14">
-        <v>7.005358831887888</v>
+        <v>22.73981121486389</v>
       </c>
       <c r="R14">
-        <v>63.04822948699099</v>
+        <v>204.658300933775</v>
       </c>
       <c r="S14">
-        <v>0.000147800536303158</v>
+        <v>0.0004096213357515553</v>
       </c>
       <c r="T14">
-        <v>0.000147800536303158</v>
+        <v>0.0004096213357515553</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>44.82177033333333</v>
+        <v>40.59291233333333</v>
       </c>
       <c r="H15">
-        <v>134.465311</v>
+        <v>121.778737</v>
       </c>
       <c r="I15">
-        <v>0.1117939314398673</v>
+        <v>0.08327605594715239</v>
       </c>
       <c r="J15">
-        <v>0.1117939314398673</v>
+        <v>0.08327605594715239</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1373,22 +1373,22 @@
         <v>0.172156</v>
       </c>
       <c r="O15">
-        <v>0.0004854196016340918</v>
+        <v>0.000503879495425664</v>
       </c>
       <c r="P15">
-        <v>0.0004854196016340918</v>
+        <v>0.0005038794954256639</v>
       </c>
       <c r="Q15">
-        <v>2.572112231168444</v>
+        <v>2.329437805219111</v>
       </c>
       <c r="R15">
-        <v>23.149010080516</v>
+        <v>20.964940246972</v>
       </c>
       <c r="S15">
-        <v>5.426696566464937E-05</v>
+        <v>4.196109705169051E-05</v>
       </c>
       <c r="T15">
-        <v>5.426696566464938E-05</v>
+        <v>4.19610970516905E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>44.82177033333333</v>
+        <v>40.59291233333333</v>
       </c>
       <c r="H16">
-        <v>134.465311</v>
+        <v>121.778737</v>
       </c>
       <c r="I16">
-        <v>0.1117939314398673</v>
+        <v>0.08327605594715239</v>
       </c>
       <c r="J16">
-        <v>0.1117939314398673</v>
+        <v>0.08327605594715239</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>37.765109</v>
+        <v>39.006687</v>
       </c>
       <c r="N16">
-        <v>113.295327</v>
+        <v>117.020061</v>
       </c>
       <c r="O16">
-        <v>0.3194531268114046</v>
+        <v>0.3425033649211204</v>
       </c>
       <c r="P16">
-        <v>0.3194531268114046</v>
+        <v>0.3425033649211204</v>
       </c>
       <c r="Q16">
-        <v>1692.699042211299</v>
+        <v>1583.395025804773</v>
       </c>
       <c r="R16">
-        <v>15234.2913799017</v>
+        <v>14250.55523224296</v>
       </c>
       <c r="S16">
-        <v>0.03571292095700541</v>
+        <v>0.02852232937925918</v>
       </c>
       <c r="T16">
-        <v>0.03571292095700541</v>
+        <v>0.02852232937925917</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,46 +1473,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>44.82177033333333</v>
+        <v>40.59291233333333</v>
       </c>
       <c r="H17">
-        <v>134.465311</v>
+        <v>121.778737</v>
       </c>
       <c r="I17">
-        <v>0.1117939314398673</v>
+        <v>0.08327605594715239</v>
       </c>
       <c r="J17">
-        <v>0.1117939314398673</v>
+        <v>0.08327605594715239</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L17">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>0.254942</v>
+        <v>0.009788</v>
       </c>
       <c r="N17">
-        <v>0.764826</v>
+        <v>0.029364</v>
       </c>
       <c r="O17">
-        <v>0.002156541347611445</v>
+        <v>8.594482622551172E-05</v>
       </c>
       <c r="P17">
-        <v>0.002156541347611445</v>
+        <v>8.59448262255117E-05</v>
       </c>
       <c r="Q17">
-        <v>11.42695177232067</v>
+        <v>0.3973234259186667</v>
       </c>
       <c r="R17">
-        <v>102.842565950886</v>
+        <v>3.575910833268</v>
       </c>
       <c r="S17">
-        <v>0.0002410882355621129</v>
+        <v>7.157146157124003E-06</v>
       </c>
       <c r="T17">
-        <v>0.000241088235562113</v>
+        <v>7.157146157124002E-06</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>44.82177033333333</v>
+        <v>40.59291233333333</v>
       </c>
       <c r="H18">
-        <v>134.465311</v>
+        <v>121.778737</v>
       </c>
       <c r="I18">
-        <v>0.1117939314398673</v>
+        <v>0.08327605594715239</v>
       </c>
       <c r="J18">
-        <v>0.1117939314398673</v>
+        <v>0.08327605594715239</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>56.08363733333334</v>
+        <v>71.75399666666667</v>
       </c>
       <c r="N18">
-        <v>168.250912</v>
+        <v>215.26199</v>
       </c>
       <c r="O18">
-        <v>0.4744086217013211</v>
+        <v>0.6300454407951178</v>
       </c>
       <c r="P18">
-        <v>0.4744086217013212</v>
+        <v>0.6300454407951178</v>
       </c>
       <c r="Q18">
-        <v>2513.767912012626</v>
+        <v>2912.703696256292</v>
       </c>
       <c r="R18">
-        <v>22623.91120811363</v>
+        <v>26214.33326630663</v>
       </c>
       <c r="S18">
-        <v>0.05303600492895946</v>
+        <v>0.05246769937690252</v>
       </c>
       <c r="T18">
-        <v>0.05303600492895946</v>
+        <v>0.05246769937690252</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>44.82177033333333</v>
+        <v>40.59291233333333</v>
       </c>
       <c r="H19">
-        <v>134.465311</v>
+        <v>121.778737</v>
       </c>
       <c r="I19">
-        <v>0.1117939314398673</v>
+        <v>0.08327605594715239</v>
       </c>
       <c r="J19">
-        <v>0.1117939314398673</v>
+        <v>0.08327605594715239</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>23.90063033333334</v>
+        <v>2.498969666666667</v>
       </c>
       <c r="N19">
-        <v>71.701891</v>
+        <v>7.496909</v>
       </c>
       <c r="O19">
-        <v>0.2021742104000504</v>
+        <v>0.021942533075653</v>
       </c>
       <c r="P19">
-        <v>0.2021742104000504</v>
+        <v>0.021942533075653</v>
       </c>
       <c r="Q19">
-        <v>1071.268563622567</v>
+        <v>101.4404566026592</v>
       </c>
       <c r="R19">
-        <v>9641.417072603101</v>
+        <v>912.9641094239329</v>
       </c>
       <c r="S19">
-        <v>0.02260184981637255</v>
+        <v>0.001827287612030321</v>
       </c>
       <c r="T19">
-        <v>0.02260184981637255</v>
+        <v>0.001827287612030321</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,46 +1659,46 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.760055666666667</v>
+        <v>0.642691</v>
       </c>
       <c r="H20">
-        <v>5.280167</v>
+        <v>1.928073</v>
       </c>
       <c r="I20">
-        <v>0.004389910105432695</v>
+        <v>0.001318475778067841</v>
       </c>
       <c r="J20">
-        <v>0.004389910105432695</v>
+        <v>0.001318475778067841</v>
       </c>
       <c r="K20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L20">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M20">
-        <v>0.1562936666666667</v>
+        <v>0.5601916666666666</v>
       </c>
       <c r="N20">
-        <v>0.468881</v>
+        <v>1.680575</v>
       </c>
       <c r="O20">
-        <v>0.001322080137978314</v>
+        <v>0.004918836886457545</v>
       </c>
       <c r="P20">
-        <v>0.001322080137978314</v>
+        <v>0.004918836886457544</v>
       </c>
       <c r="Q20">
-        <v>0.2750855536807778</v>
+        <v>0.3600301424416666</v>
       </c>
       <c r="R20">
-        <v>2.475769983127</v>
+        <v>3.240271281975</v>
       </c>
       <c r="S20">
-        <v>5.803812957902851E-06</v>
+        <v>6.485367291060907E-06</v>
       </c>
       <c r="T20">
-        <v>5.803812957902852E-06</v>
+        <v>6.485367291060906E-06</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.760055666666667</v>
+        <v>0.642691</v>
       </c>
       <c r="H21">
-        <v>5.280167</v>
+        <v>1.928073</v>
       </c>
       <c r="I21">
-        <v>0.004389910105432695</v>
+        <v>0.001318475778067841</v>
       </c>
       <c r="J21">
-        <v>0.004389910105432695</v>
+        <v>0.001318475778067841</v>
       </c>
       <c r="K21">
         <v>2</v>
@@ -1745,22 +1745,22 @@
         <v>0.172156</v>
       </c>
       <c r="O21">
-        <v>0.0004854196016340918</v>
+        <v>0.000503879495425664</v>
       </c>
       <c r="P21">
-        <v>0.0004854196016340918</v>
+        <v>0.0005038794954256639</v>
       </c>
       <c r="Q21">
-        <v>0.1010013811168889</v>
+        <v>0.03688103726533334</v>
       </c>
       <c r="R21">
-        <v>0.9090124300520001</v>
+        <v>0.331929335388</v>
       </c>
       <c r="S21">
-        <v>2.130948414588613E-06</v>
+        <v>6.643529097837833E-07</v>
       </c>
       <c r="T21">
-        <v>2.130948414588613E-06</v>
+        <v>6.643529097837832E-07</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>1.760055666666667</v>
+        <v>0.642691</v>
       </c>
       <c r="H22">
-        <v>5.280167</v>
+        <v>1.928073</v>
       </c>
       <c r="I22">
-        <v>0.004389910105432695</v>
+        <v>0.001318475778067841</v>
       </c>
       <c r="J22">
-        <v>0.004389910105432695</v>
+        <v>0.001318475778067841</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>37.765109</v>
+        <v>39.006687</v>
       </c>
       <c r="N22">
-        <v>113.295327</v>
+        <v>117.020061</v>
       </c>
       <c r="O22">
-        <v>0.3194531268114046</v>
+        <v>0.3425033649211204</v>
       </c>
       <c r="P22">
-        <v>0.3194531268114046</v>
+        <v>0.3425033649211204</v>
       </c>
       <c r="Q22">
-        <v>66.46869409773434</v>
+        <v>25.069246674717</v>
       </c>
       <c r="R22">
-        <v>598.2182468796092</v>
+        <v>225.623220072453</v>
       </c>
       <c r="S22">
-        <v>0.001402370509601457</v>
+        <v>0.0004515823905552279</v>
       </c>
       <c r="T22">
-        <v>0.001402370509601457</v>
+        <v>0.0004515823905552278</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,46 +1845,46 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>1.760055666666667</v>
+        <v>0.642691</v>
       </c>
       <c r="H23">
-        <v>5.280167</v>
+        <v>1.928073</v>
       </c>
       <c r="I23">
-        <v>0.004389910105432695</v>
+        <v>0.001318475778067841</v>
       </c>
       <c r="J23">
-        <v>0.004389910105432695</v>
+        <v>0.001318475778067841</v>
       </c>
       <c r="K23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L23">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M23">
-        <v>0.254942</v>
+        <v>0.009788</v>
       </c>
       <c r="N23">
-        <v>0.764826</v>
+        <v>0.029364</v>
       </c>
       <c r="O23">
-        <v>0.002156541347611445</v>
+        <v>8.594482622551172E-05</v>
       </c>
       <c r="P23">
-        <v>0.002156541347611445</v>
+        <v>8.59448262255117E-05</v>
       </c>
       <c r="Q23">
-        <v>0.4487121117713334</v>
+        <v>0.006290659508</v>
       </c>
       <c r="R23">
-        <v>4.038409005942</v>
+        <v>0.056615935572</v>
       </c>
       <c r="S23">
-        <v>9.467022654662923E-06</v>
+        <v>1.133161716285869E-07</v>
       </c>
       <c r="T23">
-        <v>9.467022654662925E-06</v>
+        <v>1.133161716285869E-07</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>1.760055666666667</v>
+        <v>0.642691</v>
       </c>
       <c r="H24">
-        <v>5.280167</v>
+        <v>1.928073</v>
       </c>
       <c r="I24">
-        <v>0.004389910105432695</v>
+        <v>0.001318475778067841</v>
       </c>
       <c r="J24">
-        <v>0.004389910105432695</v>
+        <v>0.001318475778067841</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>56.08363733333334</v>
+        <v>71.75399666666667</v>
       </c>
       <c r="N24">
-        <v>168.250912</v>
+        <v>215.26199</v>
       </c>
       <c r="O24">
-        <v>0.4744086217013211</v>
+        <v>0.6300454407951178</v>
       </c>
       <c r="P24">
-        <v>0.4744086217013212</v>
+        <v>0.6300454407951178</v>
       </c>
       <c r="Q24">
-        <v>98.71032369581158</v>
+        <v>46.11564787169667</v>
       </c>
       <c r="R24">
-        <v>888.3929132623042</v>
+        <v>415.04083084527</v>
       </c>
       <c r="S24">
-        <v>0.002082611202511026</v>
+        <v>0.0008306996527704387</v>
       </c>
       <c r="T24">
-        <v>0.002082611202511026</v>
+        <v>0.0008306996527704387</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>1.760055666666667</v>
+        <v>0.642691</v>
       </c>
       <c r="H25">
-        <v>5.280167</v>
+        <v>1.928073</v>
       </c>
       <c r="I25">
-        <v>0.004389910105432695</v>
+        <v>0.001318475778067841</v>
       </c>
       <c r="J25">
-        <v>0.004389910105432695</v>
+        <v>0.001318475778067841</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>23.90063033333334</v>
+        <v>2.498969666666667</v>
       </c>
       <c r="N25">
-        <v>71.701891</v>
+        <v>7.496909</v>
       </c>
       <c r="O25">
-        <v>0.2021742104000504</v>
+        <v>0.021942533075653</v>
       </c>
       <c r="P25">
-        <v>0.2021742104000504</v>
+        <v>0.021942533075653</v>
       </c>
       <c r="Q25">
-        <v>42.06643985508857</v>
+        <v>1.606065314039667</v>
       </c>
       <c r="R25">
-        <v>378.597958695797</v>
+        <v>14.454587826357</v>
       </c>
       <c r="S25">
-        <v>0.000887526609293057</v>
+        <v>2.893069836970092E-05</v>
       </c>
       <c r="T25">
-        <v>0.0008875266092930571</v>
+        <v>2.893069836970092E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,46 +2031,46 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>266.7063343333334</v>
+        <v>390.8377786666667</v>
       </c>
       <c r="H26">
-        <v>800.119003</v>
+        <v>1172.513336</v>
       </c>
       <c r="I26">
-        <v>0.6652157965493199</v>
+        <v>0.8018007787970267</v>
       </c>
       <c r="J26">
-        <v>0.6652157965493198</v>
+        <v>0.8018007787970267</v>
       </c>
       <c r="K26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L26">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M26">
-        <v>0.1562936666666667</v>
+        <v>0.5601916666666666</v>
       </c>
       <c r="N26">
-        <v>0.468881</v>
+        <v>1.680575</v>
       </c>
       <c r="O26">
-        <v>0.001322080137978314</v>
+        <v>0.004918836886457545</v>
       </c>
       <c r="P26">
-        <v>0.001322080137978314</v>
+        <v>0.004918836886457544</v>
       </c>
       <c r="Q26">
-        <v>41.68451091618256</v>
+        <v>218.9440666275778</v>
       </c>
       <c r="R26">
-        <v>375.160598245643</v>
+        <v>1970.4965996482</v>
       </c>
       <c r="S26">
-        <v>0.0008794685920872787</v>
+        <v>0.003943927246337201</v>
       </c>
       <c r="T26">
-        <v>0.0008794685920872787</v>
+        <v>0.0039439272463372</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>266.7063343333334</v>
+        <v>390.8377786666667</v>
       </c>
       <c r="H27">
-        <v>800.119003</v>
+        <v>1172.513336</v>
       </c>
       <c r="I27">
-        <v>0.6652157965493199</v>
+        <v>0.8018007787970267</v>
       </c>
       <c r="J27">
-        <v>0.6652157965493198</v>
+        <v>0.8018007787970267</v>
       </c>
       <c r="K27">
         <v>2</v>
@@ -2117,22 +2117,22 @@
         <v>0.172156</v>
       </c>
       <c r="O27">
-        <v>0.0004854196016340918</v>
+        <v>0.000503879495425664</v>
       </c>
       <c r="P27">
-        <v>0.0004854196016340918</v>
+        <v>0.0005038794954256639</v>
       </c>
       <c r="Q27">
-        <v>15.30503189782978</v>
+        <v>22.42835620804622</v>
       </c>
       <c r="R27">
-        <v>137.745287080468</v>
+        <v>201.855205872416</v>
       </c>
       <c r="S27">
-        <v>0.000322908786961676</v>
+        <v>0.0004040109718521502</v>
       </c>
       <c r="T27">
-        <v>0.0003229087869616759</v>
+        <v>0.0004040109718521501</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>266.7063343333334</v>
+        <v>390.8377786666667</v>
       </c>
       <c r="H28">
-        <v>800.119003</v>
+        <v>1172.513336</v>
       </c>
       <c r="I28">
-        <v>0.6652157965493199</v>
+        <v>0.8018007787970267</v>
       </c>
       <c r="J28">
-        <v>0.6652157965493198</v>
+        <v>0.8018007787970267</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>37.765109</v>
+        <v>39.006687</v>
       </c>
       <c r="N28">
-        <v>113.295327</v>
+        <v>117.020061</v>
       </c>
       <c r="O28">
-        <v>0.3194531268114046</v>
+        <v>0.3425033649211204</v>
       </c>
       <c r="P28">
-        <v>0.3194531268114046</v>
+        <v>0.3425033649211204</v>
       </c>
       <c r="Q28">
-        <v>10072.19378708878</v>
+        <v>15245.28690022594</v>
       </c>
       <c r="R28">
-        <v>90649.744083799</v>
+        <v>137207.5821020335</v>
       </c>
       <c r="S28">
-        <v>0.2125052662120194</v>
+        <v>0.2746194647343566</v>
       </c>
       <c r="T28">
-        <v>0.2125052662120194</v>
+        <v>0.2746194647343566</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,46 +2217,46 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>266.7063343333334</v>
+        <v>390.8377786666667</v>
       </c>
       <c r="H29">
-        <v>800.119003</v>
+        <v>1172.513336</v>
       </c>
       <c r="I29">
-        <v>0.6652157965493199</v>
+        <v>0.8018007787970267</v>
       </c>
       <c r="J29">
-        <v>0.6652157965493198</v>
+        <v>0.8018007787970267</v>
       </c>
       <c r="K29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L29">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M29">
-        <v>0.254942</v>
+        <v>0.009788</v>
       </c>
       <c r="N29">
-        <v>0.764826</v>
+        <v>0.029364</v>
       </c>
       <c r="O29">
-        <v>0.002156541347611445</v>
+        <v>8.594482622551172E-05</v>
       </c>
       <c r="P29">
-        <v>0.002156541347611445</v>
+        <v>8.59448262255117E-05</v>
       </c>
       <c r="Q29">
-        <v>67.99464628760867</v>
+        <v>3.825520177589333</v>
       </c>
       <c r="R29">
-        <v>611.951816588478</v>
+        <v>34.429681598304</v>
       </c>
       <c r="S29">
-        <v>0.001434565370342891</v>
+        <v>6.891062860119042E-05</v>
       </c>
       <c r="T29">
-        <v>0.001434565370342891</v>
+        <v>6.89106286011904E-05</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>266.7063343333334</v>
+        <v>390.8377786666667</v>
       </c>
       <c r="H30">
-        <v>800.119003</v>
+        <v>1172.513336</v>
       </c>
       <c r="I30">
-        <v>0.6652157965493199</v>
+        <v>0.8018007787970267</v>
       </c>
       <c r="J30">
-        <v>0.6652157965493198</v>
+        <v>0.8018007787970267</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>56.08363733333334</v>
+        <v>71.75399666666667</v>
       </c>
       <c r="N30">
-        <v>168.250912</v>
+        <v>215.26199</v>
       </c>
       <c r="O30">
-        <v>0.4744086217013211</v>
+        <v>0.6300454407951178</v>
       </c>
       <c r="P30">
-        <v>0.4744086217013212</v>
+        <v>0.6300454407951178</v>
       </c>
       <c r="Q30">
-        <v>14957.86132925342</v>
+        <v>28044.17266765541</v>
       </c>
       <c r="R30">
-        <v>134620.7519632808</v>
+        <v>252397.5540088986</v>
       </c>
       <c r="S30">
-        <v>0.3155841091749093</v>
+        <v>0.5051709251070414</v>
       </c>
       <c r="T30">
-        <v>0.3155841091749093</v>
+        <v>0.5051709251070414</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>266.7063343333334</v>
+        <v>390.8377786666667</v>
       </c>
       <c r="H31">
-        <v>800.119003</v>
+        <v>1172.513336</v>
       </c>
       <c r="I31">
-        <v>0.6652157965493199</v>
+        <v>0.8018007787970267</v>
       </c>
       <c r="J31">
-        <v>0.6652157965493198</v>
+        <v>0.8018007787970267</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>23.90063033333334</v>
+        <v>2.498969666666667</v>
       </c>
       <c r="N31">
-        <v>71.701891</v>
+        <v>7.496909</v>
       </c>
       <c r="O31">
-        <v>0.2021742104000504</v>
+        <v>0.021942533075653</v>
       </c>
       <c r="P31">
-        <v>0.2021742104000504</v>
+        <v>0.021942533075653</v>
       </c>
       <c r="Q31">
-        <v>6374.44950445941</v>
+        <v>976.6917534753804</v>
       </c>
       <c r="R31">
-        <v>57370.04554013468</v>
+        <v>8790.225781278423</v>
       </c>
       <c r="S31">
-        <v>0.1344894784129993</v>
+        <v>0.0175935401088381</v>
       </c>
       <c r="T31">
-        <v>0.1344894784129993</v>
+        <v>0.0175935401088381</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,46 +2403,46 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>51.213492</v>
+        <v>18.287273</v>
       </c>
       <c r="H32">
-        <v>153.640476</v>
+        <v>54.861819</v>
       </c>
       <c r="I32">
-        <v>0.1277360883085496</v>
+        <v>0.03751620373929931</v>
       </c>
       <c r="J32">
-        <v>0.1277360883085496</v>
+        <v>0.03751620373929931</v>
       </c>
       <c r="K32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L32">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M32">
-        <v>0.1562936666666667</v>
+        <v>0.5601916666666666</v>
       </c>
       <c r="N32">
-        <v>0.468881</v>
+        <v>1.680575</v>
       </c>
       <c r="O32">
-        <v>0.001322080137978314</v>
+        <v>0.004918836886457545</v>
       </c>
       <c r="P32">
-        <v>0.001322080137978314</v>
+        <v>0.004918836886457544</v>
       </c>
       <c r="Q32">
-        <v>8.004344447484</v>
+        <v>10.24437794065833</v>
       </c>
       <c r="R32">
-        <v>72.039100027356</v>
+        <v>92.19940146592499</v>
       </c>
       <c r="S32">
-        <v>0.0001688773452557773</v>
+        <v>0.0001845360867927219</v>
       </c>
       <c r="T32">
-        <v>0.0001688773452557773</v>
+        <v>0.0001845360867927219</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>51.213492</v>
+        <v>18.287273</v>
       </c>
       <c r="H33">
-        <v>153.640476</v>
+        <v>54.861819</v>
       </c>
       <c r="I33">
-        <v>0.1277360883085496</v>
+        <v>0.03751620373929931</v>
       </c>
       <c r="J33">
-        <v>0.1277360883085496</v>
+        <v>0.03751620373929931</v>
       </c>
       <c r="K33">
         <v>2</v>
@@ -2489,22 +2489,22 @@
         <v>0.172156</v>
       </c>
       <c r="O33">
-        <v>0.0004854196016340918</v>
+        <v>0.000503879495425664</v>
       </c>
       <c r="P33">
-        <v>0.0004854196016340918</v>
+        <v>0.0005038794954256639</v>
       </c>
       <c r="Q33">
-        <v>2.938903309584</v>
+        <v>1.049421256862667</v>
       </c>
       <c r="R33">
-        <v>26.450129786256</v>
+        <v>9.444791311764</v>
       </c>
       <c r="S33">
-        <v>6.200560110103331E-05</v>
+        <v>1.890364581044455E-05</v>
       </c>
       <c r="T33">
-        <v>6.200560110103333E-05</v>
+        <v>1.890364581044454E-05</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>51.213492</v>
+        <v>18.287273</v>
       </c>
       <c r="H34">
-        <v>153.640476</v>
+        <v>54.861819</v>
       </c>
       <c r="I34">
-        <v>0.1277360883085496</v>
+        <v>0.03751620373929931</v>
       </c>
       <c r="J34">
-        <v>0.1277360883085496</v>
+        <v>0.03751620373929931</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>37.765109</v>
+        <v>39.006687</v>
       </c>
       <c r="N34">
-        <v>113.295327</v>
+        <v>117.020061</v>
       </c>
       <c r="O34">
-        <v>0.3194531268114046</v>
+        <v>0.3425033649211204</v>
       </c>
       <c r="P34">
-        <v>0.3194531268114046</v>
+        <v>0.3425033649211204</v>
       </c>
       <c r="Q34">
-        <v>1934.083107650628</v>
+        <v>713.325933994551</v>
       </c>
       <c r="R34">
-        <v>17406.74796885566</v>
+        <v>6419.933405950958</v>
       </c>
       <c r="S34">
-        <v>0.04080569281682387</v>
+        <v>0.01284942601977634</v>
       </c>
       <c r="T34">
-        <v>0.04080569281682388</v>
+        <v>0.01284942601977633</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,46 +2589,46 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>51.213492</v>
+        <v>18.287273</v>
       </c>
       <c r="H35">
-        <v>153.640476</v>
+        <v>54.861819</v>
       </c>
       <c r="I35">
-        <v>0.1277360883085496</v>
+        <v>0.03751620373929931</v>
       </c>
       <c r="J35">
-        <v>0.1277360883085496</v>
+        <v>0.03751620373929931</v>
       </c>
       <c r="K35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L35">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M35">
-        <v>0.254942</v>
+        <v>0.009788</v>
       </c>
       <c r="N35">
-        <v>0.764826</v>
+        <v>0.029364</v>
       </c>
       <c r="O35">
-        <v>0.002156541347611445</v>
+        <v>8.594482622551172E-05</v>
       </c>
       <c r="P35">
-        <v>0.002156541347611445</v>
+        <v>8.59448262255117E-05</v>
       </c>
       <c r="Q35">
-        <v>13.056470077464</v>
+        <v>0.178995828124</v>
       </c>
       <c r="R35">
-        <v>117.508230697176</v>
+        <v>1.610962453116</v>
       </c>
       <c r="S35">
-        <v>0.0002754681560195341</v>
+        <v>3.224323611014973E-06</v>
       </c>
       <c r="T35">
-        <v>0.0002754681560195341</v>
+        <v>3.224323611014972E-06</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>51.213492</v>
+        <v>18.287273</v>
       </c>
       <c r="H36">
-        <v>153.640476</v>
+        <v>54.861819</v>
       </c>
       <c r="I36">
-        <v>0.1277360883085496</v>
+        <v>0.03751620373929931</v>
       </c>
       <c r="J36">
-        <v>0.1277360883085496</v>
+        <v>0.03751620373929931</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>56.08363733333334</v>
+        <v>71.75399666666667</v>
       </c>
       <c r="N36">
-        <v>168.250912</v>
+        <v>215.26199</v>
       </c>
       <c r="O36">
-        <v>0.4744086217013211</v>
+        <v>0.6300454407951178</v>
       </c>
       <c r="P36">
-        <v>0.4744086217013212</v>
+        <v>0.6300454407951178</v>
       </c>
       <c r="Q36">
-        <v>2872.238911901569</v>
+        <v>1312.184925884423</v>
       </c>
       <c r="R36">
-        <v>25850.15020711412</v>
+        <v>11809.66433295981</v>
       </c>
       <c r="S36">
-        <v>0.06059910159597726</v>
+        <v>0.02363691312188628</v>
       </c>
       <c r="T36">
-        <v>0.06059910159597726</v>
+        <v>0.02363691312188628</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>51.213492</v>
+        <v>18.287273</v>
       </c>
       <c r="H37">
-        <v>153.640476</v>
+        <v>54.861819</v>
       </c>
       <c r="I37">
-        <v>0.1277360883085496</v>
+        <v>0.03751620373929931</v>
       </c>
       <c r="J37">
-        <v>0.1277360883085496</v>
+        <v>0.03751620373929931</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>23.90063033333334</v>
+        <v>2.498969666666667</v>
       </c>
       <c r="N37">
-        <v>71.701891</v>
+        <v>7.496909</v>
       </c>
       <c r="O37">
-        <v>0.2021742104000504</v>
+        <v>0.021942533075653</v>
       </c>
       <c r="P37">
-        <v>0.2021742104000504</v>
+        <v>0.021942533075653</v>
       </c>
       <c r="Q37">
-        <v>1224.034740371124</v>
+        <v>45.69934051305233</v>
       </c>
       <c r="R37">
-        <v>11016.31266334012</v>
+        <v>411.294064617471</v>
       </c>
       <c r="S37">
-        <v>0.02582494279337212</v>
+        <v>0.000823200541422512</v>
       </c>
       <c r="T37">
-        <v>0.02582494279337212</v>
+        <v>0.000823200541422512</v>
       </c>
     </row>
   </sheetData>
